--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H2">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J2">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N2">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O2">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P2">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q2">
-        <v>0.401311714151</v>
+        <v>0.03937129143711111</v>
       </c>
       <c r="R2">
-        <v>3.611805427359</v>
+        <v>0.354341622934</v>
       </c>
       <c r="S2">
-        <v>0.0003950876108419053</v>
+        <v>1.796011209927023E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003950876108419053</v>
+        <v>1.796011209927023E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H3">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I3">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J3">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>60.985497</v>
       </c>
       <c r="O3">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P3">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q3">
-        <v>24.04822807551899</v>
+        <v>24.57074503764866</v>
       </c>
       <c r="R3">
-        <v>216.4340526796709</v>
+        <v>221.136705338838</v>
       </c>
       <c r="S3">
-        <v>0.02367525452238124</v>
+        <v>0.01120850546504547</v>
       </c>
       <c r="T3">
-        <v>0.02367525452238125</v>
+        <v>0.01120850546504547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.182981</v>
+        <v>1.208684666666667</v>
       </c>
       <c r="H4">
-        <v>3.548943</v>
+        <v>3.626054</v>
       </c>
       <c r="I4">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="J4">
-        <v>0.02832403852590812</v>
+        <v>0.01462795763842055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N4">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O4">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P4">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q4">
-        <v>4.320707974589999</v>
+        <v>7.456586825588444</v>
       </c>
       <c r="R4">
-        <v>38.88637177131</v>
+        <v>67.10928143029599</v>
       </c>
       <c r="S4">
-        <v>0.004253696392684971</v>
+        <v>0.003401492061275817</v>
       </c>
       <c r="T4">
-        <v>0.004253696392684971</v>
+        <v>0.003401492061275817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>15.534092</v>
       </c>
       <c r="I5">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J5">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N5">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O5">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P5">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q5">
-        <v>1.756583041288445</v>
+        <v>0.1686674449257778</v>
       </c>
       <c r="R5">
-        <v>15.809247371596</v>
+        <v>1.518007004332</v>
       </c>
       <c r="S5">
-        <v>0.001729339494851948</v>
+        <v>7.694149995570307E-05</v>
       </c>
       <c r="T5">
-        <v>0.001729339494851948</v>
+        <v>7.694149995570305E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.534092</v>
       </c>
       <c r="I6">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J6">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>60.985497</v>
       </c>
       <c r="O6">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P6">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q6">
         <v>105.2615912293027</v>
@@ -821,10 +821,10 @@
         <v>947.354321063724</v>
       </c>
       <c r="S6">
-        <v>0.1036290472611384</v>
+        <v>0.04801747438855546</v>
       </c>
       <c r="T6">
-        <v>0.1036290472611384</v>
+        <v>0.04801747438855546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.534092</v>
       </c>
       <c r="I7">
-        <v>0.1239772575307637</v>
+        <v>0.0626664797952065</v>
       </c>
       <c r="J7">
-        <v>0.1239772575307637</v>
+        <v>0.06266647979520648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N7">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O7">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P7">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q7">
-        <v>18.91218742662667</v>
+        <v>31.94417561202312</v>
       </c>
       <c r="R7">
-        <v>170.20968683964</v>
+        <v>287.497580508208</v>
       </c>
       <c r="S7">
-        <v>0.01861887077477336</v>
+        <v>0.01457206390669532</v>
       </c>
       <c r="T7">
-        <v>0.01861887077477336</v>
+        <v>0.01457206390669532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H8">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I8">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J8">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N8">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O8">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P8">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q8">
-        <v>11.98034318091856</v>
+        <v>2.480881648510778</v>
       </c>
       <c r="R8">
-        <v>107.823088628267</v>
+        <v>22.327934836597</v>
       </c>
       <c r="S8">
-        <v>0.01179453526401238</v>
+        <v>0.00113171071828944</v>
       </c>
       <c r="T8">
-        <v>0.01179453526401238</v>
+        <v>0.00113171071828944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H9">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I9">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J9">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>60.985497</v>
       </c>
       <c r="O9">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P9">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q9">
-        <v>717.9108286116802</v>
+        <v>1548.262915162648</v>
       </c>
       <c r="R9">
-        <v>6461.197457505123</v>
+        <v>13934.36623646383</v>
       </c>
       <c r="S9">
-        <v>0.7067764634625096</v>
+        <v>0.7062754230422169</v>
       </c>
       <c r="T9">
-        <v>0.7067764634625097</v>
+        <v>0.7062754230422169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.31548633333333</v>
+        <v>76.16218566666667</v>
       </c>
       <c r="H10">
-        <v>105.946459</v>
+        <v>228.486557</v>
       </c>
       <c r="I10">
-        <v>0.8455564336760396</v>
+        <v>0.9217434921665711</v>
       </c>
       <c r="J10">
-        <v>0.8455564336760398</v>
+        <v>0.921743492166571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N10">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O10">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P10">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q10">
-        <v>128.9859291290033</v>
+        <v>469.8578263727632</v>
       </c>
       <c r="R10">
-        <v>1160.87336216103</v>
+        <v>4228.720437354868</v>
       </c>
       <c r="S10">
-        <v>0.1269854349495177</v>
+        <v>0.2143363584060647</v>
       </c>
       <c r="T10">
-        <v>0.1269854349495177</v>
+        <v>0.2143363584060647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.07949433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.238483</v>
+      </c>
+      <c r="I11">
+        <v>0.0009620703998019471</v>
+      </c>
+      <c r="J11">
+        <v>0.000962070399801947</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.089474</v>
-      </c>
-      <c r="H11">
-        <v>0.268422</v>
-      </c>
-      <c r="I11">
-        <v>0.002142270267288404</v>
-      </c>
-      <c r="J11">
-        <v>0.002142270267288404</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N11">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O11">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P11">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q11">
-        <v>0.03035295098733334</v>
+        <v>0.002589421915888889</v>
       </c>
       <c r="R11">
-        <v>0.273176558886</v>
+        <v>0.023304797243</v>
       </c>
       <c r="S11">
-        <v>2.98821949739418E-05</v>
+        <v>1.181223835544165E-06</v>
       </c>
       <c r="T11">
-        <v>2.98821949739418E-05</v>
+        <v>1.181223835544165E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H12">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I12">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J12">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>60.985497</v>
       </c>
       <c r="O12">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P12">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q12">
-        <v>1.818872119526</v>
+        <v>1.616000475672333</v>
       </c>
       <c r="R12">
-        <v>16.369849075734</v>
+        <v>14.544004281051</v>
       </c>
       <c r="S12">
-        <v>0.001790662506951117</v>
+        <v>0.0007371754554180489</v>
       </c>
       <c r="T12">
-        <v>0.001790662506951117</v>
+        <v>0.0007371754554180489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.089474</v>
+        <v>0.07949433333333333</v>
       </c>
       <c r="H13">
-        <v>0.268422</v>
+        <v>0.238483</v>
       </c>
       <c r="I13">
-        <v>0.002142270267288404</v>
+        <v>0.0009620703998019471</v>
       </c>
       <c r="J13">
-        <v>0.002142270267288404</v>
+        <v>0.000962070399801947</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N13">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O13">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P13">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q13">
-        <v>0.32679394286</v>
+        <v>0.4904144273435556</v>
       </c>
       <c r="R13">
-        <v>2.94114548574</v>
+        <v>4.413729846092</v>
       </c>
       <c r="S13">
-        <v>0.0003217255653633449</v>
+        <v>0.0002237137205483539</v>
       </c>
       <c r="T13">
-        <v>0.0003217255653633449</v>
+        <v>0.0002237137205483539</v>
       </c>
     </row>
   </sheetData>
